--- a/biology/Zoologie/Centrolophidae/Centrolophidae.xlsx
+++ b/biology/Zoologie/Centrolophidae/Centrolophidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centrolophidés
 Les Centrolophidés (Centrolophidae) sont une famille de poissons de l'ordre des Perciformes.
@@ -512,10 +524,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des espèces sont des poissons de grandes profondeurs ou d'eaux glaciales, répartis dans tous les océans sauf la partie centrale des océans Indien et Pacifique. 
-Les adultes ont des nageoires pelviennes, une nageoire dorsale continue, soutenue par des rayons peu nombreux et généralement mous[1]. 
+Les adultes ont des nageoires pelviennes, une nageoire dorsale continue, soutenue par des rayons peu nombreux et généralement mous. 
 Quelques espèces comme le centrolophe noir (Centrolophus niger) sont pêchées commercialement. 
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FishBase                                            (11 mai 2016)[1] et World Register of Marine Species                               (11 mai 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FishBase                                            (11 mai 2016) et World Register of Marine Species                               (11 mai 2016) :
 genre Centrolophus Lacepède, 1802
 Centrolophus niger
 genre Hyperoglyphe Günther, 1859
